--- a/Table_Generate/manpower.xlsx
+++ b/Table_Generate/manpower.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/17e821e30eeff6db/Desktop/ELL305_work/Documentation/Table_gen/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/17e821e30eeff6db/Desktop/ELL305_work/Documentation_P2/Table_Generate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="8_{AD3CB67E-3F87-403A-841E-3C7EA39BBBEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E597A02-A359-410A-9209-BA85422E2447}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="8_{AD3CB67E-3F87-403A-841E-3C7EA39BBBEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE8EEC40-E414-4E59-B0C6-5265D36C4BC9}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="135">
   <si>
     <t>Shubham Aggarwal</t>
   </si>
@@ -78,21 +78,12 @@
     <t>2021EE10654</t>
   </si>
   <si>
-    <t>2021EE30714</t>
-  </si>
-  <si>
-    <t>Vinay sah</t>
-  </si>
-  <si>
     <t>2021EE10171</t>
   </si>
   <si>
     <t>Harshit Sachdeva</t>
   </si>
   <si>
-    <t>2021ee30705</t>
-  </si>
-  <si>
     <t>Ayush Kumar</t>
   </si>
   <si>
@@ -105,12 +96,6 @@
     <t>2021EE10680</t>
   </si>
   <si>
-    <t>Aryan Mishra</t>
-  </si>
-  <si>
-    <t>2021EE10137</t>
-  </si>
-  <si>
     <t>Mridul Ahi</t>
   </si>
   <si>
@@ -144,9 +129,6 @@
     <t>Kalu Ram Tard</t>
   </si>
   <si>
-    <t>Advait Rajesh Ninawe</t>
-  </si>
-  <si>
     <t>Navneet Raj</t>
   </si>
   <si>
@@ -156,9 +138,6 @@
     <t>Chetan Chaurasia</t>
   </si>
   <si>
-    <t>Merugu Tanmai</t>
-  </si>
-  <si>
     <t>Shivam Kumar</t>
   </si>
   <si>
@@ -177,15 +156,6 @@
     <t>2021EE10665</t>
   </si>
   <si>
-    <t>Arduino programing, TinkerCAD</t>
-  </si>
-  <si>
-    <t>Archisman Biswas</t>
-  </si>
-  <si>
-    <t>2021MT10254</t>
-  </si>
-  <si>
     <t>Abhinav Verma</t>
   </si>
   <si>
@@ -210,12 +180,6 @@
     <t>2021MT10235</t>
   </si>
   <si>
-    <t>Dintyala Rahul Bhardwaj</t>
-  </si>
-  <si>
-    <t>2020MT60877</t>
-  </si>
-  <si>
     <t>Pooja Mahajan</t>
   </si>
   <si>
@@ -228,42 +192,18 @@
     <t>2021EE10696</t>
   </si>
   <si>
-    <t>Neelam kumari meena</t>
-  </si>
-  <si>
-    <t>2021MT10938</t>
-  </si>
-  <si>
     <t>Ameya Mishra</t>
   </si>
   <si>
     <t>2021MT10637</t>
   </si>
   <si>
-    <t>Kartavya Khurana</t>
-  </si>
-  <si>
-    <t>2021EE30710</t>
-  </si>
-  <si>
     <t>Aditi Shekhar</t>
   </si>
   <si>
     <t>2021EE10685</t>
   </si>
   <si>
-    <t>Sanskriti Gautam</t>
-  </si>
-  <si>
-    <t>2021MT10935</t>
-  </si>
-  <si>
-    <t>Musaib Gani Pirzada</t>
-  </si>
-  <si>
-    <t>2021MT10227</t>
-  </si>
-  <si>
     <t>Rohan Das</t>
   </si>
   <si>
@@ -291,21 +231,6 @@
     <t>2021MT60959</t>
   </si>
   <si>
-    <t>Deepanshu</t>
-  </si>
-  <si>
-    <t>Ruchir Bansal</t>
-  </si>
-  <si>
-    <t>2021MT10703</t>
-  </si>
-  <si>
-    <t>Vaibhav Seth</t>
-  </si>
-  <si>
-    <t>2021MT10236</t>
-  </si>
-  <si>
     <t>Bingi Sai Vishal</t>
   </si>
   <si>
@@ -339,181 +264,178 @@
     <t>2021EE10673</t>
   </si>
   <si>
-    <t>Harshit Singh</t>
-  </si>
-  <si>
     <t>Kaustubh Dev</t>
   </si>
   <si>
     <t>2021EE10689</t>
   </si>
   <si>
-    <t>Khushika</t>
-  </si>
-  <si>
     <t>Anchal</t>
   </si>
   <si>
     <t>2021MT10910</t>
   </si>
   <si>
-    <t>Freecad</t>
-  </si>
-  <si>
-    <t>Fabricated the machine</t>
-  </si>
-  <si>
-    <t>Writing</t>
-  </si>
-  <si>
-    <t>GitHub Actions, LaTeX, Bash</t>
-  </si>
-  <si>
-    <t>Critical Thinking, Documentation, Design</t>
-  </si>
-  <si>
-    <t>LaTeX</t>
-  </si>
-  <si>
-    <t>Laser cutting, Rd works, Designing</t>
-  </si>
-  <si>
-    <t>Laser Cutting, TinkerCad, Fabrication</t>
-  </si>
-  <si>
-    <t>FreeCAD, RDWorks</t>
-  </si>
-  <si>
-    <t>Fabrication</t>
-  </si>
-  <si>
-    <t>CAD</t>
-  </si>
-  <si>
-    <t>Fabrication, Laser cutting, Soldering and Sticking</t>
-  </si>
-  <si>
-    <t>Latex, Github</t>
-  </si>
-  <si>
-    <t>Microsoft Powerpoint, Research and Description</t>
-  </si>
-  <si>
-    <t>FreeCAD, Terrastruct</t>
-  </si>
-  <si>
-    <t>Latex, GitHub</t>
-  </si>
-  <si>
-    <t>Figma, GitHub</t>
-  </si>
-  <si>
-    <t>FSM design, Web Surfing.</t>
-  </si>
-  <si>
-    <t>Arduino programming in TinkerCAD</t>
-  </si>
-  <si>
-    <t>Mind map, GitHub, latex</t>
-  </si>
-  <si>
-    <t>cost estimation</t>
-  </si>
-  <si>
-    <t>Description of container part functioning. Research on container design.</t>
-  </si>
-  <si>
-    <t>Cost analysis using manual data scrapping from different websites.</t>
-  </si>
-  <si>
-    <t>Approximating expense tecnique, data scrapping</t>
-  </si>
-  <si>
-    <t>Research, Analysis, Critical Thinking</t>
-  </si>
-  <si>
-    <t>Research , Brainstorming , Collaboration.</t>
-  </si>
-  <si>
-    <t>Cost prediction</t>
-  </si>
-  <si>
-    <t>Writing/Web Surfing/Research</t>
-  </si>
-  <si>
-    <t>Optimal Cost estimation techniques, Group discussion for better parts for same work</t>
-  </si>
-  <si>
-    <t>freecad</t>
-  </si>
-  <si>
-    <t>Rdworks, laser cutting</t>
-  </si>
-  <si>
-    <t>FreeCAD, Autodesk Inventor</t>
-  </si>
-  <si>
-    <t>Arduino, Mechanical Design</t>
-  </si>
-  <si>
-    <t>Arduino, Tinkercad</t>
-  </si>
-  <si>
-    <t>Tinkercad, arduino</t>
-  </si>
-  <si>
-    <t>AutoDesk Inventor</t>
-  </si>
-  <si>
-    <t>Browsing, Research</t>
-  </si>
-  <si>
-    <t>Python, GitHub, LaTeX</t>
-  </si>
-  <si>
-    <t>RdWorks, FreeCAD</t>
-  </si>
-  <si>
-    <t>Laser cutting, Rdworks</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>Research for Machine Design, and documentation of steps of cloth washing.</t>
-  </si>
-  <si>
-    <t>Autodesk Inventor, RD works, FreeCAD</t>
-  </si>
-  <si>
-    <t>Autodesk Inventor, FreeCad</t>
-  </si>
-  <si>
-    <t>Project Libre</t>
-  </si>
-  <si>
-    <t>Latex and GitHub</t>
-  </si>
-  <si>
-    <t>C++, Arduino</t>
-  </si>
-  <si>
-    <t>Freecad , RDworks</t>
-  </si>
-  <si>
-    <t>FreeCAD, RDworks, Autodesk Invertor</t>
-  </si>
-  <si>
-    <t>LaTeX, Research skills</t>
-  </si>
-  <si>
-    <t>Freecad, Terrastruct</t>
-  </si>
-  <si>
-    <t>Latex Managing</t>
-  </si>
-  <si>
-    <t>2021MT10257</t>
+    <t>Harsh Agarwal</t>
+  </si>
+  <si>
+    <t>2021EE30977</t>
+  </si>
+  <si>
+    <t>Research</t>
+  </si>
+  <si>
+    <t>Research based work on how to transfer data with minimum internet usage</t>
+  </si>
+  <si>
+    <t>2021EE10653</t>
+  </si>
+  <si>
+    <t>Overleaf, LaTeX, GitHub Actions, pandoc</t>
+  </si>
+  <si>
+    <t>Anshul</t>
+  </si>
+  <si>
+    <t>2021EE10729</t>
+  </si>
+  <si>
+    <t>Ark Verma</t>
+  </si>
+  <si>
+    <t>2021EE10783</t>
+  </si>
+  <si>
+    <t>RF communication, GPS modules, Telemetry, Research</t>
+  </si>
+  <si>
+    <t>Sheetal Manatawal</t>
+  </si>
+  <si>
+    <t>2021EE10174</t>
+  </si>
+  <si>
+    <t>Research, Problem Solving</t>
+  </si>
+  <si>
+    <t>Mohit Raj</t>
+  </si>
+  <si>
+    <t>2021MT10919</t>
+  </si>
+  <si>
+    <t>7 segment display</t>
+  </si>
+  <si>
+    <t>LCD design, Arduino, triger identifier for bus, hardware design.</t>
+  </si>
+  <si>
+    <t>Research on occupancy estimation</t>
+  </si>
+  <si>
+    <t>Research, Browsing, Brainstorming</t>
+  </si>
+  <si>
+    <t>Harsh Swaika</t>
+  </si>
+  <si>
+    <t>2021EE11052</t>
+  </si>
+  <si>
+    <t>Aditya Jain</t>
+  </si>
+  <si>
+    <t>2021EE10633</t>
+  </si>
+  <si>
+    <t>2021EE30705</t>
+  </si>
+  <si>
+    <t>Latex</t>
+  </si>
+  <si>
+    <t>Research, Survey</t>
+  </si>
+  <si>
+    <t>Shubh Chhabra</t>
+  </si>
+  <si>
+    <t>2021EE10645</t>
+  </si>
+  <si>
+    <t>Ayush Gupta</t>
+  </si>
+  <si>
+    <t>2021MT10697</t>
+  </si>
+  <si>
+    <t>RF communication, System design</t>
+  </si>
+  <si>
+    <t>Pramukh Jain</t>
+  </si>
+  <si>
+    <t>2021EE10720</t>
+  </si>
+  <si>
+    <t>Hardware selection</t>
+  </si>
+  <si>
+    <t>ESP32, networks</t>
+  </si>
+  <si>
+    <t>Tanmai Merugu</t>
+  </si>
+  <si>
+    <t>VINAY SAH</t>
+  </si>
+  <si>
+    <t>Asmit Singh</t>
+  </si>
+  <si>
+    <t>2021MT10887</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>Vasu Sharma</t>
+  </si>
+  <si>
+    <t>2021EE10620</t>
+  </si>
+  <si>
+    <t>LaTeX, GitHub, Obsidian/Mermaid, MSWord</t>
+  </si>
+  <si>
+    <t>Durgesh Nandini</t>
+  </si>
+  <si>
+    <t>2021EE10651</t>
+  </si>
+  <si>
+    <t>Research on LoRa wireless comminication</t>
+  </si>
+  <si>
+    <t>Research, transmission techniques, Receiver hardware</t>
+  </si>
+  <si>
+    <t>Arnav Goel</t>
+  </si>
+  <si>
+    <t>2021EE10699</t>
+  </si>
+  <si>
+    <t>Analysis and Design of Algorithms, python</t>
+  </si>
+  <si>
+    <t>Himanshu Prajapati</t>
+  </si>
+  <si>
+    <t>2021EE30177</t>
+  </si>
+  <si>
+    <t>GitHub, Research on YT</t>
   </si>
 </sst>
 </file>
@@ -576,7 +498,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -584,6 +506,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -830,8 +755,8 @@
   <dimension ref="A1:D186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -844,786 +769,786 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="C2" s="3">
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>146</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C3" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>147</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C4" s="3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C5" s="3">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C6" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="C7" s="3">
-        <v>6</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>112</v>
+        <v>3</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="C8" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="C9" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C10" s="3">
         <v>10</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>115</v>
+      <c r="D10" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="C11" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>148</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C12" s="3">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="C13" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C14" s="3">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="C15" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="C16" s="3">
-        <v>5</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>120</v>
+        <v>10</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="C17" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>121</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="C18" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>149</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="C19" s="3">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="C20" s="3">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>150</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="C21" s="3">
-        <v>12</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>123</v>
+        <v>8</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="C22" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>124</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="C23" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>151</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="3">
+        <v>9</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="C24" s="3">
-        <v>7</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="C25" s="3">
         <v>8</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>125</v>
+      <c r="D25" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="C26" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C27" s="3">
-        <v>6</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>154</v>
+        <v>8</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="C28" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C29" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="C30" s="3">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>157</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C31" s="3">
         <v>7</v>
       </c>
-      <c r="C31" s="3">
-        <v>5</v>
-      </c>
       <c r="D31" s="2" t="s">
-        <v>158</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" s="3">
+        <v>7</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="3">
-        <v>6</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="B33" s="2" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="C33" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="C34" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="C35" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="C36" s="3">
+        <v>8</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" s="3">
         <v>4</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="3">
-        <v>6</v>
-      </c>
       <c r="D37" s="2" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="C38" s="3">
+        <v>5</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" s="3">
+        <v>6</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="3">
         <v>4</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="50.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C39" s="3">
+      <c r="D40" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" s="3">
         <v>8</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="38" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C40" s="3">
-        <v>8</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C41" s="3">
-        <v>6</v>
-      </c>
       <c r="D41" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="38" thickBot="1" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="C42" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="C43" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>160</v>
+        <v>19</v>
       </c>
       <c r="C44" s="3">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="C45" s="3">
-        <v>10</v>
+        <v>3.5</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c r="C46" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>136</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>47</v>
+        <v>120</v>
       </c>
       <c r="C47" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>46</v>
+        <v>123</v>
       </c>
       <c r="C48" s="3">
-        <v>11</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C49" s="3">
+        <v>4</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" s="3">
+        <v>4</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C51" s="3">
         <v>8</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C50" s="3">
-        <v>18</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C51" s="3">
-        <v>7</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D51" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="C52" s="3">
-        <v>10</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>140</v>
+        <v>8</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>1</v>
+        <v>130</v>
       </c>
       <c r="C53" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>141</v>
+        <v>83</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C54" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>142</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C55" s="3">
-        <v>10</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>143</v>
+        <v>6</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>106</v>
+        <v>23</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>107</v>
+        <v>24</v>
       </c>
       <c r="C56" s="3">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>144</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1634,24 +1559,24 @@
         <v>4</v>
       </c>
       <c r="C57" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>141</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>49</v>
+        <v>132</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>50</v>
+        <v>133</v>
       </c>
       <c r="C58" s="3">
         <v>4</v>
       </c>
-      <c r="D58" s="2" t="s">
-        <v>145</v>
+      <c r="D58" s="4" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/Table_Generate/manpower.xlsx
+++ b/Table_Generate/manpower.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/17e821e30eeff6db/Desktop/ELL305_work/Documentation_P2/Table_Generate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="8_{AD3CB67E-3F87-403A-841E-3C7EA39BBBEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE8EEC40-E414-4E59-B0C6-5265D36C4BC9}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="8_{AD3CB67E-3F87-403A-841E-3C7EA39BBBEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81A8B582-A798-4FDF-8DD5-309FDEA8922E}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,22 +16,11 @@
     <sheet name="Form responses 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="137">
   <si>
     <t>Shubham Aggarwal</t>
   </si>
@@ -285,15 +274,9 @@
     <t>Research</t>
   </si>
   <si>
-    <t>Research based work on how to transfer data with minimum internet usage</t>
-  </si>
-  <si>
     <t>2021EE10653</t>
   </si>
   <si>
-    <t>Overleaf, LaTeX, GitHub Actions, pandoc</t>
-  </si>
-  <si>
     <t>Anshul</t>
   </si>
   <si>
@@ -324,12 +307,6 @@
     <t>2021MT10919</t>
   </si>
   <si>
-    <t>7 segment display</t>
-  </si>
-  <si>
-    <t>LCD design, Arduino, triger identifier for bus, hardware design.</t>
-  </si>
-  <si>
     <t>Research on occupancy estimation</t>
   </si>
   <si>
@@ -381,9 +358,6 @@
     <t>Hardware selection</t>
   </si>
   <si>
-    <t>ESP32, networks</t>
-  </si>
-  <si>
     <t>Tanmai Merugu</t>
   </si>
   <si>
@@ -417,9 +391,6 @@
     <t>Research on LoRa wireless comminication</t>
   </si>
   <si>
-    <t>Research, transmission techniques, Receiver hardware</t>
-  </si>
-  <si>
     <t>Arnav Goel</t>
   </si>
   <si>
@@ -436,6 +407,30 @@
   </si>
   <si>
     <t>GitHub, Research on YT</t>
+  </si>
+  <si>
+    <t>Aryan Mishra</t>
+  </si>
+  <si>
+    <t>2021EE10137</t>
+  </si>
+  <si>
+    <t>Research, Transmission techniques, Receiver hardware</t>
+  </si>
+  <si>
+    <t>ESP32, Networks</t>
+  </si>
+  <si>
+    <t>LCD design, Arduino, Trigger identifier for bus, Hardware design.</t>
+  </si>
+  <si>
+    <t>7 Segment Display</t>
+  </si>
+  <si>
+    <t>Overleaf, LaTeX, GitHub Actions, Pandoc</t>
+  </si>
+  <si>
+    <t>Data transfer with minimum internet usage</t>
   </si>
 </sst>
 </file>
@@ -548,6 +543,10 @@
 </file>
 
 <file path=xl/persons/person4.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person5.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -752,11 +751,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D186"/>
+  <dimension ref="A1:D185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -781,7 +780,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>81</v>
       </c>
@@ -862,15 +861,15 @@
         <v>3</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>84</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C8" s="3">
         <v>5</v>
@@ -904,7 +903,7 @@
         <v>10</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>86</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -965,10 +964,10 @@
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C15" s="3">
         <v>5</v>
@@ -979,16 +978,16 @@
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C16" s="3">
         <v>10</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1007,10 +1006,10 @@
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C18" s="3">
         <v>5</v>
@@ -1019,7 +1018,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>45</v>
       </c>
@@ -1058,15 +1057,15 @@
         <v>8</v>
       </c>
       <c r="D21" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="C22" s="3">
         <v>5</v>
@@ -1075,7 +1074,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>67</v>
       </c>
@@ -1086,7 +1085,7 @@
         <v>8</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
@@ -1100,7 +1099,7 @@
         <v>9</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
@@ -1114,10 +1113,10 @@
         <v>8</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>55</v>
       </c>
@@ -1131,7 +1130,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>79</v>
       </c>
@@ -1142,7 +1141,7 @@
         <v>8</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
@@ -1175,10 +1174,10 @@
     </row>
     <row r="30" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C30" s="3">
         <v>4</v>
@@ -1189,10 +1188,10 @@
     </row>
     <row r="31" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C31" s="3">
         <v>7</v>
@@ -1206,7 +1205,7 @@
         <v>16</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C32" s="3">
         <v>7</v>
@@ -1240,7 +1239,7 @@
         <v>3</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
@@ -1254,15 +1253,15 @@
         <v>6</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C36" s="3">
         <v>8</v>
@@ -1273,10 +1272,10 @@
     </row>
     <row r="37" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C37" s="3">
         <v>4</v>
@@ -1296,21 +1295,21 @@
         <v>5</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C39" s="3">
         <v>6</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
@@ -1352,7 +1351,7 @@
         <v>5</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
@@ -1371,7 +1370,7 @@
     </row>
     <row r="44" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>19</v>
@@ -1383,7 +1382,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>71</v>
       </c>
@@ -1397,9 +1396,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>15</v>
@@ -1413,30 +1412,30 @@
     </row>
     <row r="47" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C47" s="3">
         <v>5</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C48" s="3">
         <v>9</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
@@ -1469,16 +1468,16 @@
     </row>
     <row r="51" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C51" s="3">
         <v>8</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
@@ -1492,15 +1491,15 @@
         <v>8</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C53" s="3">
         <v>7</v>
@@ -1509,7 +1508,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>17</v>
       </c>
@@ -1523,7 +1522,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>66</v>
       </c>
@@ -1534,7 +1533,7 @@
         <v>6</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1567,23 +1566,31 @@
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C58" s="3">
         <v>4</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="2"/>
+      <c r="A59" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C59" s="3">
+        <v>10</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
@@ -1748,9 +1755,6 @@
       <c r="D86" s="2"/>
     </row>
     <row r="87" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="2"/>
-      <c r="B87" s="2"/>
-      <c r="C87" s="3"/>
       <c r="D87" s="2"/>
     </row>
     <row r="88" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2047,10 +2051,8 @@
     <row r="185" spans="4:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D185" s="2"/>
     </row>
-    <row r="186" spans="4:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D186" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>